--- a/planilha_curso.xlsx
+++ b/planilha_curso.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\PROGRAMAÇAO\python\texto-sobre-imagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2F64A9-5EB2-4D22-9424-0B8940984377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808B64C-692A-43F0-B433-629522B07140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="pagina1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planilha_curso.xlsx
+++ b/planilha_curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\PROGRAMAÇAO\python\texto-sobre-imagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808B64C-692A-43F0-B433-629522B07140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DAEDC-A9D1-47ED-A6CC-769A58BF7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
+    <workbookView xWindow="720" yWindow="1650" windowWidth="15375" windowHeight="7965" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
   </bookViews>
   <sheets>
     <sheet name="pagina1" sheetId="1" r:id="rId1"/>

--- a/planilha_curso.xlsx
+++ b/planilha_curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\PROGRAMAÇAO\python\texto-sobre-imagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DAEDC-A9D1-47ED-A6CC-769A58BF7604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8CD60-8829-423A-84EB-9871D5ECB4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1650" windowWidth="15375" windowHeight="7965" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
   </bookViews>
   <sheets>
     <sheet name="pagina1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Carga Horária (horas)</t>
   </si>
   <si>
-    <t>Introdução à Programação</t>
-  </si>
-  <si>
-    <t>Ana Santos Gomes</t>
-  </si>
-  <si>
-    <t>7 Horas</t>
-  </si>
-  <si>
     <t>Carlos Rodrigues Gomes</t>
   </si>
   <si>
@@ -63,35 +54,246 @@
     <t>Nome do Aluno</t>
   </si>
   <si>
-    <t>8 Horas</t>
-  </si>
-  <si>
-    <t>9 Horas</t>
-  </si>
-  <si>
-    <t>10 Horas</t>
-  </si>
-  <si>
-    <t>29 de Abril de 2024</t>
-  </si>
-  <si>
     <t>Data de Conclusão</t>
   </si>
   <si>
     <t>30 de Abril de 2024</t>
   </si>
   <si>
-    <t>31 de Abril de 2024</t>
-  </si>
-  <si>
-    <t>32 de Abril de 2024</t>
+    <t>Raphael Fernandes Franca</t>
+  </si>
+  <si>
+    <t>Versionamento de Código com Git
+e GitHub</t>
+  </si>
+  <si>
+    <t>Introdução à inicialização de
+Programação</t>
+  </si>
+  <si>
+    <t>7 horas</t>
+  </si>
+  <si>
+    <t>Python - programação orientada
+a objeto</t>
+  </si>
+  <si>
+    <t>Boas praticas utilizando a programação
+orientada a objeto</t>
+  </si>
+  <si>
+    <t>29 de Maio de 2024,</t>
+  </si>
+  <si>
+    <t>31 de Nov de 2024</t>
+  </si>
+  <si>
+    <t>32 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>8 horas</t>
+  </si>
+  <si>
+    <t>9 horas</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>11 horas</t>
+  </si>
+  <si>
+    <t>12 horas</t>
+  </si>
+  <si>
+    <t>13 horas</t>
+  </si>
+  <si>
+    <t>14 horas</t>
+  </si>
+  <si>
+    <t>15 horas</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>17 horas</t>
+  </si>
+  <si>
+    <t>18 horas</t>
+  </si>
+  <si>
+    <t>36 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>37 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>38 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>39 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>40 de Dez de 2024</t>
+  </si>
+  <si>
+    <t>33 de Jan de 2024</t>
+  </si>
+  <si>
+    <t>34 de Jun de 2024</t>
+  </si>
+  <si>
+    <t>35 de Jul de 2024</t>
+  </si>
+  <si>
+    <t>Luana Fernandes Gomes</t>
+  </si>
+  <si>
+    <t>Carlos Almeida Fernandes</t>
+  </si>
+  <si>
+    <t>Gabriel Gomes Pereira</t>
+  </si>
+  <si>
+    <t>João Lima Souza</t>
+  </si>
+  <si>
+    <t>Fernanda Pereira Rodrigues</t>
+  </si>
+  <si>
+    <t>Ana Lima Lima</t>
+  </si>
+  <si>
+    <t>Rafael Rodrigues Santos</t>
+  </si>
+  <si>
+    <t>Fernanda Santos Silva</t>
+  </si>
+  <si>
+    <t>Mateus Fernandes Lima</t>
+  </si>
+  <si>
+    <t>Lucas Souza Rodrigues</t>
+  </si>
+  <si>
+    <t>Maria Lima Almeida</t>
+  </si>
+  <si>
+    <t>Sandra Almeida Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Silva Rodrigues</t>
+  </si>
+  <si>
+    <t>Lucas Almeida Santos</t>
+  </si>
+  <si>
+    <t>Sandra Gomes Lima</t>
+  </si>
+  <si>
+    <t>Paulo Silva Pereira</t>
+  </si>
+  <si>
+    <t>Aline Pereira Rodrigues</t>
+  </si>
+  <si>
+    <t>Patricia Fernandes Rodrigues</t>
+  </si>
+  <si>
+    <t>Felipe Gomes Almeida</t>
+  </si>
+  <si>
+    <t>Paulo Souza Santos</t>
+  </si>
+  <si>
+    <t>Patricia Pereira Rodrigues</t>
+  </si>
+  <si>
+    <t>Aline Lima Oliveira</t>
+  </si>
+  <si>
+    <t>Julia Rodrigues Pereira</t>
+  </si>
+  <si>
+    <t>João Oliveira Fernandes</t>
+  </si>
+  <si>
+    <t>Mateus Lima Lima</t>
+  </si>
+  <si>
+    <t>Gabriel Fernandes Lima</t>
+  </si>
+  <si>
+    <t>Maria Fernandes Lima</t>
+  </si>
+  <si>
+    <t>19 horas</t>
+  </si>
+  <si>
+    <t>20 horas</t>
+  </si>
+  <si>
+    <t>21 horas</t>
+  </si>
+  <si>
+    <t>22 horas</t>
+  </si>
+  <si>
+    <t>23 horas</t>
+  </si>
+  <si>
+    <t>24 horas</t>
+  </si>
+  <si>
+    <t>25 horas</t>
+  </si>
+  <si>
+    <t>26 horas</t>
+  </si>
+  <si>
+    <t>27 horas</t>
+  </si>
+  <si>
+    <t>28 horas</t>
+  </si>
+  <si>
+    <t>29 horas</t>
+  </si>
+  <si>
+    <t>30 horas</t>
+  </si>
+  <si>
+    <t>31 horas</t>
+  </si>
+  <si>
+    <t>32 horas</t>
+  </si>
+  <si>
+    <t>33 horas</t>
+  </si>
+  <si>
+    <t>34 horas</t>
+  </si>
+  <si>
+    <t>35 horas</t>
+  </si>
+  <si>
+    <t>36 horas</t>
+  </si>
+  <si>
+    <t>37 horas</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +312,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,14 +342,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,6 +422,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}" name="Tabela3" displayName="Tabela3" ref="A1:D32" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D32" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
+    <sortCondition ref="B1:B32"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{830527A2-1273-424D-AE4D-75A362B530A6}" name="Curso" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{63809699-BA47-45CD-8EEE-7B0FDEB6053E}" name="Nome do Aluno" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3C984217-7AC2-4A09-B319-03251F2EAAAF}" name="Carga Horária (horas)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{02E52F0A-FF0F-4F20-AE19-FF2FB6DD43E0}" name="Data de Conclusão" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,93 +737,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102A7CE-3181-49B5-A146-DA272994559D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="D33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/planilha_curso.xlsx
+++ b/planilha_curso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\PROGRAMAÇAO\python\texto-sobre-imagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8CD60-8829-423A-84EB-9871D5ECB4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF3E1D-596F-4B3D-973C-59B394253EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>Carga Horária (horas)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Carlos Rodrigues Gomes</t>
   </si>
   <si>
-    <t>Aline Almeida Fernandes</t>
-  </si>
-  <si>
     <t>Paulo Oliveira Pereira</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>30 de Abril de 2024</t>
-  </si>
-  <si>
-    <t>Raphael Fernandes Franca</t>
   </si>
   <si>
     <t>Versionamento de Código com Git
@@ -71,9 +65,6 @@
 Programação</t>
   </si>
   <si>
-    <t>7 horas</t>
-  </si>
-  <si>
     <t>Python - programação orientada
 a objeto</t>
   </si>
@@ -94,9 +85,6 @@
     <t>8 horas</t>
   </si>
   <si>
-    <t>9 horas</t>
-  </si>
-  <si>
     <t>10 horas</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>Patricia Pereira Rodrigues</t>
   </si>
   <si>
-    <t>Aline Lima Oliveira</t>
-  </si>
-  <si>
     <t>Julia Rodrigues Pereira</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
   </si>
   <si>
     <t>31 horas</t>
-  </si>
-  <si>
-    <t>32 horas</t>
   </si>
   <si>
     <t>33 horas</t>
@@ -293,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +303,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +355,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +431,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}" name="Tabela3" displayName="Tabela3" ref="A1:D32" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D32" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
-    <sortCondition ref="B1:B32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}" name="Tabela3" displayName="Tabela3" ref="A1:D29" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D29" xr:uid="{9ED98658-8D0B-46F2-8180-E14C41A4F516}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{830527A2-1273-424D-AE4D-75A362B530A6}" name="Curso" dataDxfId="3"/>
@@ -737,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102A7CE-3181-49B5-A146-DA272994559D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,341 +760,341 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
+      <c r="A22" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1096,116 +1102,74 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="D33" s="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/planilha_curso.xlsx
+++ b/planilha_curso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\PROGRAMAÇAO\python\texto-sobre-imagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF3E1D-596F-4B3D-973C-59B394253EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6EB94D-D33F-458D-A8CA-424D25C59DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5F84008E-7CCE-4099-B42D-85B629A514F2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Carga Horária (horas)</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Paulo Silva Pereira</t>
   </si>
   <si>
-    <t>Aline Pereira Rodrigues</t>
-  </si>
-  <si>
     <t>Patricia Fernandes Rodrigues</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>26 horas</t>
   </si>
   <si>
-    <t>27 horas</t>
-  </si>
-  <si>
     <t>28 horas</t>
   </si>
   <si>
@@ -269,6 +263,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Automatização de Certificado
+Com Python</t>
+  </si>
+  <si>
+    <t>Raphael Fernandes Franca</t>
+  </si>
+  <si>
+    <t>40 horas</t>
+  </si>
+  <si>
+    <t>28 de Maio de 2024</t>
   </si>
 </sst>
 </file>
@@ -743,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102A7CE-3181-49B5-A146-DA272994559D}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +765,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,21 +779,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -800,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -808,13 +815,14 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -828,7 +836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -842,24 +850,24 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -873,7 +881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -887,21 +895,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -915,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,35 +937,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -971,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -979,7 +987,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
@@ -993,7 +1001,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -1004,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -1021,7 +1029,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
@@ -1035,7 +1043,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -1046,10 +1054,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -1060,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -1074,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>12</v>
@@ -1105,7 +1113,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>12</v>
@@ -1116,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -1147,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -1161,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
